--- a/멜론Top100.xlsx
+++ b/멜론Top100.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -390,6 +390,9 @@
       <c r="C1" t="str">
         <v>singer</v>
       </c>
+      <c r="D1" t="str">
+        <v>image</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -412,6 +415,9 @@
       <c r="C3" t="str">
         <v>노을</v>
       </c>
+      <c r="D3" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/48/811/10348811_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -423,6 +429,9 @@
       <c r="C4" t="str">
         <v>아이유</v>
       </c>
+      <c r="D4" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/46/650/10346650_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -434,6 +443,9 @@
       <c r="C5" t="str">
         <v>MC몽</v>
       </c>
+      <c r="D5" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/44/095/10344095_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -445,6 +457,9 @@
       <c r="C6" t="str">
         <v>AKMU (악동뮤지션)</v>
       </c>
+      <c r="D6" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/31/947/10331947_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -456,6 +471,9 @@
       <c r="C7" t="str">
         <v>태연 (TAEYEON)</v>
       </c>
+      <c r="D7" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/44/534/10344534_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -467,6 +485,9 @@
       <c r="C8" t="str">
         <v>송하예</v>
       </c>
+      <c r="D8" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/37/665/10337665_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -478,6 +499,9 @@
       <c r="C9" t="str">
         <v>장범준</v>
       </c>
+      <c r="D9" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/20/500/10320500_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -489,6 +513,9 @@
       <c r="C10" t="str">
         <v>임재현</v>
       </c>
+      <c r="D10" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/31/499/10331499_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -500,6 +527,9 @@
       <c r="C11" t="str">
         <v>전상근</v>
       </c>
+      <c r="D11" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/26/710/10326710_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -511,6 +541,9 @@
       <c r="C12" t="str">
         <v>MC몽</v>
       </c>
+      <c r="D12" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/44/095/10344095_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -522,6 +555,9 @@
       <c r="C13" t="str">
         <v>Zion.T</v>
       </c>
+      <c r="D13" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/48/389/10348389_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -533,6 +569,9 @@
       <c r="C14" t="str">
         <v>장덕철</v>
       </c>
+      <c r="D14" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/36/518/10336518_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -544,6 +583,9 @@
       <c r="C15" t="str">
         <v>마크툽 (MAKTUB)</v>
       </c>
+      <c r="D15" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/94/603/10294603_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -555,6 +597,9 @@
       <c r="C16" t="str">
         <v>폴킴</v>
       </c>
+      <c r="D16" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/17/137/10317137_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -566,6 +611,9 @@
       <c r="C17" t="str">
         <v>(여자)아이들</v>
       </c>
+      <c r="D17" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/43/701/10343701_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -577,6 +625,9 @@
       <c r="C18" t="str">
         <v>HYNN(박혜원)</v>
       </c>
+      <c r="D18" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/67/986/10267986_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -588,6 +639,9 @@
       <c r="C19" t="str">
         <v>황인욱</v>
       </c>
+      <c r="D19" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/46/371/10346371_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -599,6 +653,9 @@
       <c r="C20" t="str">
         <v>볼빨간사춘기</v>
       </c>
+      <c r="D20" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/27/581/10327581_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -610,6 +667,9 @@
       <c r="C21" t="str">
         <v>송하예</v>
       </c>
+      <c r="D21" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/83/614/10283614_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -621,6 +681,9 @@
       <c r="C22" t="str">
         <v>폴킴</v>
       </c>
+      <c r="D22" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/35/933/10335933_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -632,6 +695,9 @@
       <c r="C23" t="str">
         <v>멜로망스</v>
       </c>
+      <c r="D23" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/48/325/10348325_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -643,6 +709,9 @@
       <c r="C24" t="str">
         <v>기리보이</v>
       </c>
+      <c r="D24" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/49/385/10349385_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -654,6 +723,9 @@
       <c r="C25" t="str">
         <v>허각</v>
       </c>
+      <c r="D25" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/46/175/10346175_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -665,6 +737,9 @@
       <c r="C26" t="str">
         <v>헤이즈 (Heize)</v>
       </c>
+      <c r="D26" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/37/649/10337649_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -676,6 +751,9 @@
       <c r="C27" t="str">
         <v>황인욱</v>
       </c>
+      <c r="D27" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/98/014/10298014_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -687,6 +765,9 @@
       <c r="C28" t="str">
         <v>케이시 (Kassy)</v>
       </c>
+      <c r="D28" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/25/945/10325945_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -698,6 +779,9 @@
       <c r="C29" t="str">
         <v>거미</v>
       </c>
+      <c r="D29" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/103/14/289/10314289_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -709,6 +793,9 @@
       <c r="C30" t="str">
         <v>MC몽</v>
       </c>
+      <c r="D30" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/44/095/10344095_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -720,6 +807,9 @@
       <c r="C31" t="str">
         <v>Anne-Marie</v>
       </c>
+      <c r="D31" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/101/37/250/10137250_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -731,6 +821,9 @@
       <c r="C32" t="str">
         <v>임재현</v>
       </c>
+      <c r="D32" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/07/131/10207131_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -742,6 +835,9 @@
       <c r="C33" t="str">
         <v>방탄소년단</v>
       </c>
+      <c r="D33" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/73/641/10273641_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -753,6 +849,9 @@
       <c r="C34" t="str">
         <v>기리보이</v>
       </c>
+      <c r="D34" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/49/385/10349385_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -764,6 +863,9 @@
       <c r="C35" t="str">
         <v>지코 (ZICO)</v>
       </c>
+      <c r="D35" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/46/327/10346327_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -775,6 +877,9 @@
       <c r="C36" t="str">
         <v>Shawn MendesCamila Cabello</v>
       </c>
+      <c r="D36" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/98/832/10298832_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -786,6 +891,9 @@
       <c r="C37" t="str">
         <v>첸 (CHEN)</v>
       </c>
+      <c r="D37" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/34/254/10334254_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -797,6 +905,9 @@
       <c r="C38" t="str">
         <v>TWICE (트와이스)</v>
       </c>
+      <c r="D38" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/31/167/10331167_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -808,6 +919,9 @@
       <c r="C39" t="str">
         <v>먼데이 키즈 (Monday Kiz)</v>
       </c>
+      <c r="D39" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/90/621/10290621_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -819,6 +933,9 @@
       <c r="C40" t="str">
         <v>현아</v>
       </c>
+      <c r="D40" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/47/725/10347725_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -830,6 +947,9 @@
       <c r="C41" t="str">
         <v>휘인 (Whee In)</v>
       </c>
+      <c r="D41" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/25/421/10325421_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -841,6 +961,9 @@
       <c r="C42" t="str">
         <v>폴킴</v>
       </c>
+      <c r="D42" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/101/49/492/10149492_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -852,6 +975,9 @@
       <c r="C43" t="str">
         <v>V.O.S</v>
       </c>
+      <c r="D43" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/24/004/10324004_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -863,6 +989,9 @@
       <c r="C44" t="str">
         <v>태연 (TAEYEON)</v>
       </c>
+      <c r="D44" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/103/09/213/10309213_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -874,6 +1003,9 @@
       <c r="C45" t="str">
         <v>장혜진윤민수(바이브)</v>
       </c>
+      <c r="D45" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/97/571/10297571_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -885,6 +1017,9 @@
       <c r="C46" t="str">
         <v>Billie Eilish</v>
       </c>
+      <c r="D46" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/67/565/10267565_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -896,6 +1031,9 @@
       <c r="C47" t="str">
         <v>박경</v>
       </c>
+      <c r="D47" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/49/449/10349449_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -907,6 +1045,9 @@
       <c r="C48" t="str">
         <v>펀치 (Punch)</v>
       </c>
+      <c r="D48" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/45/742/10345742_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -918,6 +1059,9 @@
       <c r="C49" t="str">
         <v>창모 (CHANGMO)Hash SwanASH ISLAND김효은</v>
       </c>
+      <c r="D49" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/94/820/10294820_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -929,6 +1073,9 @@
       <c r="C50" t="str">
         <v>태연 (TAEYEON)</v>
       </c>
+      <c r="D50" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/65/079/10265079_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -940,6 +1087,9 @@
       <c r="C51" t="str">
         <v>지코 (ZICO)</v>
       </c>
+      <c r="D51" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/33/851/10333851_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -951,6 +1101,9 @@
       <c r="C52" t="str">
         <v>태연 (TAEYEON)</v>
       </c>
+      <c r="D52" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/44/534/10344534_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -962,6 +1115,9 @@
       <c r="C53" t="str">
         <v>펀치 (Punch)</v>
       </c>
+      <c r="D53" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/29/447/10329447_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -973,6 +1129,9 @@
       <c r="C54" t="str">
         <v>폴킴</v>
       </c>
+      <c r="D54" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/17/134/10217134_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -984,6 +1143,9 @@
       <c r="C55" t="str">
         <v>닐로(Nilo)</v>
       </c>
+      <c r="D55" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/21/104/10321104_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -995,6 +1157,9 @@
       <c r="C56" t="str">
         <v>Lauv</v>
       </c>
+      <c r="D56" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/09/752/10209752_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -1006,6 +1171,9 @@
       <c r="C57" t="str">
         <v>바닐라 어쿠스틱</v>
       </c>
+      <c r="D57" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/49/386/10349386_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -1017,6 +1185,9 @@
       <c r="C58" t="str">
         <v>이우</v>
       </c>
+      <c r="D58" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/35/543/10335543_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -1028,6 +1199,9 @@
       <c r="C59" t="str">
         <v>에이치코드 (H:CODE)</v>
       </c>
+      <c r="D59" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/026/76/167/2676167_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -1039,6 +1213,9 @@
       <c r="C60" t="str">
         <v>벤</v>
       </c>
+      <c r="D60" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/103/02/879/10302879_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -1050,6 +1227,9 @@
       <c r="C61" t="str">
         <v>10cm</v>
       </c>
+      <c r="D61" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/103/09/152/10309152_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -1061,6 +1241,9 @@
       <c r="C62" t="str">
         <v>Naomi Scott</v>
       </c>
+      <c r="D62" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/88/448/10288448_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -1072,6 +1255,9 @@
       <c r="C63" t="str">
         <v>첸 (CHEN)</v>
       </c>
+      <c r="D63" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/68/441/10268441_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -1083,6 +1269,9 @@
       <c r="C64" t="str">
         <v>방탄소년단</v>
       </c>
+      <c r="D64" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/100/37/969/10037969_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -1094,6 +1283,9 @@
       <c r="C65" t="str">
         <v>지코 (ZICO)</v>
       </c>
+      <c r="D65" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/33/851/10333851_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -1105,6 +1297,9 @@
       <c r="C66" t="str">
         <v>벤</v>
       </c>
+      <c r="D66" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/103/16/828/10316828_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -1116,6 +1311,9 @@
       <c r="C67" t="str">
         <v>펀치 (Punch)</v>
       </c>
+      <c r="D67" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/18/623/10318623_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -1127,6 +1325,9 @@
       <c r="C68" t="str">
         <v>김나영</v>
       </c>
+      <c r="D68" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/94/763/10294763_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -1138,6 +1339,9 @@
       <c r="C69" t="str">
         <v>마마무(Mamamoo)</v>
       </c>
+      <c r="D69" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/43/701/10343701_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -1149,6 +1353,9 @@
       <c r="C70" t="str">
         <v>MC몽</v>
       </c>
+      <c r="D70" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/44/095/10344095_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -1160,6 +1367,9 @@
       <c r="C71" t="str">
         <v>케이시 (Kassy)</v>
       </c>
+      <c r="D71" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/37/420/10237420_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -1171,6 +1381,9 @@
       <c r="C72" t="str">
         <v>태연 (TAEYEON)</v>
       </c>
+      <c r="D72" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/48/124/10348124_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -1182,6 +1395,9 @@
       <c r="C73" t="str">
         <v>첸 (CHEN)</v>
       </c>
+      <c r="D73" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/34/254/10334254_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -1193,6 +1409,9 @@
       <c r="C74" t="str">
         <v>다비치</v>
       </c>
+      <c r="D74" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/86/309/10286309_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -1204,6 +1423,9 @@
       <c r="C75" t="str">
         <v>이우</v>
       </c>
+      <c r="D75" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/103/07/772/10307772_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -1215,6 +1437,9 @@
       <c r="C76" t="str">
         <v>잔나비</v>
       </c>
+      <c r="D76" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/60/858/10260858_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -1226,6 +1451,9 @@
       <c r="C77" t="str">
         <v>Imagine Dragons</v>
       </c>
+      <c r="D77" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/100/35/055/10035055_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -1237,6 +1465,9 @@
       <c r="C78" t="str">
         <v>기리보이</v>
       </c>
+      <c r="D78" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/37/675/10337675_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -1248,6 +1479,9 @@
       <c r="C79" t="str">
         <v>장범준</v>
       </c>
+      <c r="D79" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/64/375/10264375_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -1259,6 +1493,9 @@
       <c r="C80" t="str">
         <v>브라운아이드걸스</v>
       </c>
+      <c r="D80" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/44/546/10344546_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -1270,6 +1507,9 @@
       <c r="C81" t="str">
         <v>뉴이스트</v>
       </c>
+      <c r="D81" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/41/625/10341625_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -1281,6 +1521,9 @@
       <c r="C82" t="str">
         <v>방탄소년단</v>
       </c>
+      <c r="D82" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/101/97/480/10197480_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -1292,6 +1535,9 @@
       <c r="C83" t="str">
         <v>김나영</v>
       </c>
+      <c r="D83" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/47/935/10347935_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -1303,6 +1549,9 @@
       <c r="C84" t="str">
         <v>폴킴</v>
       </c>
+      <c r="D84" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/026/92/501/2692501_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -1314,6 +1563,9 @@
       <c r="C85" t="str">
         <v>태연 (TAEYEON)</v>
       </c>
+      <c r="D85" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/44/534/10344534_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -1325,6 +1577,9 @@
       <c r="C86" t="str">
         <v>헤이즈 (Heize)</v>
       </c>
+      <c r="D86" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/103/11/752/10311752_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -1336,6 +1591,9 @@
       <c r="C87" t="str">
         <v>TWICE (트와이스)</v>
       </c>
+      <c r="D87" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/76/861/10276861_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -1347,6 +1605,9 @@
       <c r="C88" t="str">
         <v>디오 (D.O.)</v>
       </c>
+      <c r="D88" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/103/01/811/10301811_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -1358,6 +1619,9 @@
       <c r="C89" t="str">
         <v>멜로망스</v>
       </c>
+      <c r="D89" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/103/05/070/10305070_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -1369,6 +1633,9 @@
       <c r="C90" t="str">
         <v>김필</v>
       </c>
+      <c r="D90" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/48/537/10348537_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -1380,6 +1647,9 @@
       <c r="C91" t="str">
         <v>ITZY (있지)</v>
       </c>
+      <c r="D91" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/103/12/251/10312251_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -1391,6 +1661,9 @@
       <c r="C92" t="str">
         <v>스텔라장 (Stella Jang)</v>
       </c>
+      <c r="D92" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/49/241/10349241_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -1402,6 +1675,9 @@
       <c r="C93" t="str">
         <v>MC몽</v>
       </c>
+      <c r="D93" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/44/095/10344095_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -1413,6 +1689,9 @@
       <c r="C94" t="str">
         <v>선미</v>
       </c>
+      <c r="D94" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/22/222/10322222_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -1424,6 +1703,9 @@
       <c r="C95" t="str">
         <v>청하</v>
       </c>
+      <c r="D95" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/99/371/10299371_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -1435,6 +1717,9 @@
       <c r="C96" t="str">
         <v>오마이걸</v>
       </c>
+      <c r="D96" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/43/701/10343701_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -1446,6 +1731,9 @@
       <c r="C97" t="str">
         <v>BewhY (비와이)</v>
       </c>
+      <c r="D97" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/67/223/10267223_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -1457,6 +1745,9 @@
       <c r="C98" t="str">
         <v>X1 (엑스원)</v>
       </c>
+      <c r="D98" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/22/332/10322332_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -1468,6 +1759,9 @@
       <c r="C99" t="str">
         <v>방탄소년단</v>
       </c>
+      <c r="D99" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/73/641/10273641_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -1479,6 +1773,9 @@
       <c r="C100" t="str">
         <v>스윙스Kid Milli매드클라운</v>
       </c>
+      <c r="D100" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/21/162/10321162_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -1490,6 +1787,9 @@
       <c r="C101" t="str">
         <v>Crush</v>
       </c>
+      <c r="D101" t="str">
+        <v>https://cdnimg.melon.co.kr/cm2/album/images/103/22/578/10322578_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -1501,10 +1801,13 @@
       <c r="C102" t="str">
         <v>엠씨더맥스</v>
       </c>
+      <c r="D102" t="str">
+        <v>https://cdnimg.melon.co.kr/cm/album/images/102/38/710/10238710_500.jpg/melon/resize/120/quality/80/optimize</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C102"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D102"/>
   </ignoredErrors>
 </worksheet>
 </file>